--- a/RNN_python/output_data_test/anom_data8.xlsx
+++ b/RNN_python/output_data_test/anom_data8.xlsx
@@ -420,244 +420,244 @@
       <c r="A2" s="1" t="inlineStr"/>
       <c r="B2" s="1" t="inlineStr">
         <is>
-          <t>Thu</t>
+          <t>Tue</t>
         </is>
       </c>
       <c r="C2" s="2" t="n">
-        <v>43111</v>
+        <v>43081</v>
       </c>
       <c r="D2" t="n">
-        <v>-10.53750120787906</v>
+        <v>-19.57238211690971</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" s="1" t="n"/>
       <c r="B3" s="1" t="n"/>
       <c r="C3" s="2" t="n">
-        <v>43111.04166666666</v>
+        <v>43081.04166666666</v>
       </c>
       <c r="D3" t="n">
-        <v>-7.290149018591549</v>
+        <v>12.09871929600828</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" s="1" t="n"/>
       <c r="B4" s="1" t="n"/>
       <c r="C4" s="2" t="n">
-        <v>43111.08333333334</v>
+        <v>43081.08333333334</v>
       </c>
       <c r="D4" t="n">
-        <v>1.078119437032996</v>
+        <v>18.87879005461627</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" s="1" t="n"/>
       <c r="B5" s="1" t="n"/>
       <c r="C5" s="2" t="n">
-        <v>43111.125</v>
+        <v>43081.125</v>
       </c>
       <c r="D5" t="n">
-        <v>10.90891797003658</v>
+        <v>16.12355210616352</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" s="1" t="n"/>
       <c r="B6" s="1" t="n"/>
       <c r="C6" s="2" t="n">
-        <v>43111.16666666666</v>
+        <v>43081.16666666666</v>
       </c>
       <c r="D6" t="n">
-        <v>19.69233358981886</v>
+        <v>25.83825418532436</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" s="1" t="n"/>
       <c r="B7" s="1" t="n"/>
       <c r="C7" s="2" t="n">
-        <v>43111.20833333334</v>
+        <v>43081.20833333334</v>
       </c>
       <c r="D7" t="n">
-        <v>23.0633455097236</v>
+        <v>32.4619231903762</v>
       </c>
     </row>
     <row r="8">
       <c r="A8" s="1" t="n"/>
       <c r="B8" s="1" t="n"/>
       <c r="C8" s="2" t="n">
-        <v>43111.25</v>
+        <v>43081.25</v>
       </c>
       <c r="D8" t="n">
-        <v>36.6344051539696</v>
+        <v>25.35481601793823</v>
       </c>
     </row>
     <row r="9">
       <c r="A9" s="1" t="n"/>
       <c r="B9" s="1" t="n"/>
       <c r="C9" s="2" t="n">
-        <v>43111.29166666666</v>
+        <v>43081.29166666666</v>
       </c>
       <c r="D9" t="n">
-        <v>295.1086096004649</v>
+        <v>113.5907198370556</v>
       </c>
     </row>
     <row r="10">
       <c r="A10" s="1" t="n"/>
       <c r="B10" s="1" t="n"/>
       <c r="C10" s="2" t="n">
-        <v>43111.33333333334</v>
+        <v>43081.33333333334</v>
       </c>
       <c r="D10" t="n">
-        <v>406.0615923608355</v>
+        <v>267.6935785727084</v>
       </c>
     </row>
     <row r="11">
       <c r="A11" s="1" t="n"/>
       <c r="B11" s="1" t="n"/>
       <c r="C11" s="2" t="n">
-        <v>43111.375</v>
+        <v>43081.375</v>
       </c>
       <c r="D11" t="n">
-        <v>395.5652908750071</v>
+        <v>347.2080306953449</v>
       </c>
     </row>
     <row r="12">
       <c r="A12" s="1" t="n"/>
       <c r="B12" s="1" t="n"/>
       <c r="C12" s="2" t="n">
-        <v>43111.41666666666</v>
+        <v>43081.41666666666</v>
       </c>
       <c r="D12" t="n">
-        <v>334.9885814489199</v>
+        <v>326.6286895646302</v>
       </c>
     </row>
     <row r="13">
       <c r="A13" s="1" t="n"/>
       <c r="B13" s="1" t="n"/>
       <c r="C13" s="2" t="n">
-        <v>43111.45833333334</v>
+        <v>43081.45833333334</v>
       </c>
       <c r="D13" t="n">
-        <v>280.1082164703353</v>
+        <v>340.076997285723</v>
       </c>
     </row>
     <row r="14">
       <c r="A14" s="1" t="n"/>
       <c r="B14" s="1" t="n"/>
       <c r="C14" s="2" t="n">
-        <v>43111.5</v>
+        <v>43081.5</v>
       </c>
       <c r="D14" t="n">
-        <v>244.3077005787964</v>
+        <v>323.8560588083436</v>
       </c>
     </row>
     <row r="15">
       <c r="A15" s="1" t="n"/>
       <c r="B15" s="1" t="n"/>
       <c r="C15" s="2" t="n">
-        <v>43111.54166666666</v>
+        <v>43081.54166666666</v>
       </c>
       <c r="D15" t="n">
-        <v>202.1832207675732</v>
+        <v>268.1533931413273</v>
       </c>
     </row>
     <row r="16">
       <c r="A16" s="1" t="n"/>
       <c r="B16" s="1" t="n"/>
       <c r="C16" s="2" t="n">
-        <v>43111.58333333334</v>
+        <v>43081.58333333334</v>
       </c>
       <c r="D16" t="n">
-        <v>156.7045237225574</v>
+        <v>220.4750782811726</v>
       </c>
     </row>
     <row r="17">
       <c r="A17" s="1" t="n"/>
       <c r="B17" s="1" t="n"/>
       <c r="C17" s="2" t="n">
-        <v>43111.625</v>
+        <v>43081.625</v>
       </c>
       <c r="D17" t="n">
-        <v>115.7888348795256</v>
+        <v>176.8590121307276</v>
       </c>
     </row>
     <row r="18">
       <c r="A18" s="1" t="n"/>
       <c r="B18" s="1" t="n"/>
       <c r="C18" s="2" t="n">
-        <v>43111.66666666666</v>
+        <v>43081.66666666666</v>
       </c>
       <c r="D18" t="n">
-        <v>82.27878284769935</v>
+        <v>137.4954084981329</v>
       </c>
     </row>
     <row r="19">
       <c r="A19" s="1" t="n"/>
       <c r="B19" s="1" t="n"/>
       <c r="C19" s="2" t="n">
-        <v>43111.70833333334</v>
+        <v>43081.70833333334</v>
       </c>
       <c r="D19" t="n">
-        <v>55.840376574405</v>
+        <v>102.9050402275189</v>
       </c>
     </row>
     <row r="20">
       <c r="A20" s="1" t="n"/>
       <c r="B20" s="1" t="n"/>
       <c r="C20" s="2" t="n">
-        <v>43111.75</v>
+        <v>43081.75</v>
       </c>
       <c r="D20" t="n">
-        <v>35.46904679753418</v>
+        <v>73.16176555691135</v>
       </c>
     </row>
     <row r="21">
       <c r="A21" s="1" t="n"/>
       <c r="B21" s="1" t="n"/>
       <c r="C21" s="2" t="n">
-        <v>43111.79166666666</v>
+        <v>43081.79166666666</v>
       </c>
       <c r="D21" t="n">
-        <v>20.23864303784326</v>
+        <v>48.30668211572164</v>
       </c>
     </row>
     <row r="22">
       <c r="A22" s="1" t="n"/>
       <c r="B22" s="1" t="n"/>
       <c r="C22" s="2" t="n">
-        <v>43111.83333333334</v>
+        <v>43081.83333333334</v>
       </c>
       <c r="D22" t="n">
-        <v>9.507961788502328</v>
+        <v>28.56054015086977</v>
       </c>
     </row>
     <row r="23">
       <c r="A23" s="1" t="n"/>
       <c r="B23" s="1" t="n"/>
       <c r="C23" s="2" t="n">
-        <v>43111.875</v>
+        <v>43081.875</v>
       </c>
       <c r="D23" t="n">
-        <v>2.942954072713405</v>
+        <v>14.31019611971051</v>
       </c>
     </row>
     <row r="24">
       <c r="A24" s="1" t="n"/>
       <c r="B24" s="1" t="n"/>
       <c r="C24" s="2" t="n">
-        <v>43111.91666666666</v>
+        <v>43081.91666666666</v>
       </c>
       <c r="D24" t="n">
-        <v>0.3463733522821713</v>
+        <v>5.693110171362704</v>
       </c>
     </row>
     <row r="25">
       <c r="A25" s="1" t="n"/>
       <c r="B25" s="1" t="n"/>
       <c r="C25" s="2" t="n">
-        <v>43111.95833333334</v>
+        <v>43081.95833333334</v>
       </c>
       <c r="D25" t="n">
-        <v>1.350762222117581</v>
+        <v>2.448933157242692</v>
       </c>
     </row>
   </sheetData>
@@ -709,171 +709,171 @@
       <c r="A2" s="1" t="inlineStr"/>
       <c r="B2" s="1" t="inlineStr">
         <is>
-          <t>Thu</t>
+          <t>Tue</t>
         </is>
       </c>
       <c r="C2" s="2" t="n">
-        <v>43111</v>
+        <v>43081</v>
       </c>
       <c r="D2" t="n">
-        <v>10</v>
+        <v>13</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" s="1" t="n"/>
       <c r="B3" s="1" t="n"/>
       <c r="C3" s="2" t="n">
-        <v>43111.04166666666</v>
+        <v>43081.04166666666</v>
       </c>
       <c r="D3" t="n">
-        <v>9</v>
+        <v>6</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" s="1" t="n"/>
       <c r="B4" s="1" t="n"/>
       <c r="C4" s="2" t="n">
-        <v>43111.08333333334</v>
+        <v>43081.08333333334</v>
       </c>
       <c r="D4" t="n">
-        <v>4</v>
+        <v>7</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" s="1" t="n"/>
       <c r="B5" s="1" t="n"/>
       <c r="C5" s="2" t="n">
-        <v>43111.125</v>
+        <v>43081.125</v>
       </c>
       <c r="D5" t="n">
-        <v>12</v>
+        <v>25</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" s="1" t="n"/>
       <c r="B6" s="1" t="n"/>
       <c r="C6" s="2" t="n">
-        <v>43111.16666666666</v>
+        <v>43081.16666666666</v>
       </c>
       <c r="D6" t="n">
-        <v>26</v>
+        <v>28</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" s="1" t="n"/>
       <c r="B7" s="1" t="n"/>
       <c r="C7" s="2" t="n">
-        <v>43111.20833333334</v>
+        <v>43081.20833333334</v>
       </c>
       <c r="D7" t="n">
-        <v>7</v>
+        <v>6</v>
       </c>
     </row>
     <row r="8">
       <c r="A8" s="1" t="n"/>
       <c r="B8" s="1" t="n"/>
       <c r="C8" s="2" t="n">
-        <v>43111.25</v>
+        <v>43081.25</v>
       </c>
       <c r="D8" t="n">
-        <v>14</v>
+        <v>13</v>
       </c>
     </row>
     <row r="9">
       <c r="A9" s="1" t="n"/>
       <c r="B9" s="1" t="n"/>
       <c r="C9" s="2" t="n">
-        <v>43111.29166666666</v>
+        <v>43081.29166666666</v>
       </c>
       <c r="D9" t="n">
-        <v>50</v>
+        <v>43</v>
       </c>
     </row>
     <row r="10">
       <c r="A10" s="1" t="n"/>
       <c r="B10" s="1" t="n"/>
       <c r="C10" s="2" t="n">
-        <v>43111.33333333334</v>
+        <v>43081.33333333334</v>
       </c>
       <c r="D10" t="n">
-        <v>462</v>
+        <v>482</v>
       </c>
     </row>
     <row r="11">
       <c r="A11" s="1" t="n"/>
       <c r="B11" s="1" t="n"/>
       <c r="C11" s="2" t="n">
-        <v>43111.375</v>
+        <v>43081.375</v>
       </c>
       <c r="D11" t="n">
-        <v>453</v>
+        <v>391</v>
       </c>
     </row>
     <row r="12">
       <c r="A12" s="1" t="n"/>
       <c r="B12" s="1" t="n"/>
       <c r="C12" s="2" t="n">
-        <v>43111.41666666666</v>
+        <v>43081.41666666666</v>
       </c>
       <c r="D12" t="n">
-        <v>467</v>
+        <v>421</v>
       </c>
     </row>
     <row r="13">
       <c r="A13" s="1" t="n"/>
       <c r="B13" s="1" t="n"/>
       <c r="C13" s="2" t="n">
-        <v>43111.45833333334</v>
+        <v>43081.45833333334</v>
       </c>
       <c r="D13" t="n">
-        <v>290</v>
+        <v>334</v>
       </c>
     </row>
     <row r="14">
       <c r="A14" s="1" t="n"/>
       <c r="B14" s="1" t="n"/>
       <c r="C14" s="2" t="n">
-        <v>43111.5</v>
+        <v>43081.5</v>
       </c>
       <c r="D14" t="n">
-        <v>335</v>
+        <v>342</v>
       </c>
     </row>
     <row r="15">
       <c r="A15" s="1" t="n"/>
       <c r="B15" s="1" t="n"/>
       <c r="C15" s="2" t="n">
-        <v>43111.54166666666</v>
+        <v>43081.54166666666</v>
       </c>
       <c r="D15" t="n">
-        <v>274</v>
+        <v>243</v>
       </c>
     </row>
     <row r="16">
       <c r="A16" s="1" t="n"/>
       <c r="B16" s="1" t="n"/>
       <c r="C16" s="2" t="n">
-        <v>43111.58333333334</v>
+        <v>43081.58333333334</v>
       </c>
       <c r="D16" t="n">
-        <v>219</v>
+        <v>203</v>
       </c>
     </row>
     <row r="17">
       <c r="A17" s="1" t="n"/>
       <c r="B17" s="1" t="n"/>
       <c r="C17" s="2" t="n">
-        <v>43111.625</v>
+        <v>43081.625</v>
       </c>
       <c r="D17" t="n">
-        <v>154</v>
+        <v>193</v>
       </c>
     </row>
     <row r="18">
       <c r="A18" s="1" t="n"/>
       <c r="B18" s="1" t="n"/>
       <c r="C18" s="2" t="n">
-        <v>43111.66666666666</v>
+        <v>43081.66666666666</v>
       </c>
       <c r="D18" t="n">
         <v>119</v>
@@ -883,70 +883,70 @@
       <c r="A19" s="1" t="n"/>
       <c r="B19" s="1" t="n"/>
       <c r="C19" s="2" t="n">
-        <v>43111.70833333334</v>
+        <v>43081.70833333334</v>
       </c>
       <c r="D19" t="n">
-        <v>80</v>
+        <v>94</v>
       </c>
     </row>
     <row r="20">
       <c r="A20" s="1" t="n"/>
       <c r="B20" s="1" t="n"/>
       <c r="C20" s="2" t="n">
-        <v>43111.75</v>
+        <v>43081.75</v>
       </c>
       <c r="D20" t="n">
-        <v>56</v>
+        <v>64</v>
       </c>
     </row>
     <row r="21">
       <c r="A21" s="1" t="n"/>
       <c r="B21" s="1" t="n"/>
       <c r="C21" s="2" t="n">
-        <v>43111.79166666666</v>
+        <v>43081.79166666666</v>
       </c>
       <c r="D21" t="n">
-        <v>46</v>
+        <v>36</v>
       </c>
     </row>
     <row r="22">
       <c r="A22" s="1" t="n"/>
       <c r="B22" s="1" t="n"/>
       <c r="C22" s="2" t="n">
-        <v>43111.83333333334</v>
+        <v>43081.83333333334</v>
       </c>
       <c r="D22" t="n">
-        <v>35</v>
+        <v>32</v>
       </c>
     </row>
     <row r="23">
       <c r="A23" s="1" t="n"/>
       <c r="B23" s="1" t="n"/>
       <c r="C23" s="2" t="n">
-        <v>43111.875</v>
+        <v>43081.875</v>
       </c>
       <c r="D23" t="n">
-        <v>21</v>
+        <v>18</v>
       </c>
     </row>
     <row r="24">
       <c r="A24" s="1" t="n"/>
       <c r="B24" s="1" t="n"/>
       <c r="C24" s="2" t="n">
-        <v>43111.91666666666</v>
+        <v>43081.91666666666</v>
       </c>
       <c r="D24" t="n">
-        <v>12</v>
+        <v>9</v>
       </c>
     </row>
     <row r="25">
       <c r="A25" s="1" t="n"/>
       <c r="B25" s="1" t="n"/>
       <c r="C25" s="2" t="n">
-        <v>43111.95833333334</v>
+        <v>43081.95833333334</v>
       </c>
       <c r="D25" t="n">
-        <v>27</v>
+        <v>15</v>
       </c>
     </row>
   </sheetData>

--- a/RNN_python/output_data_test/anom_data8.xlsx
+++ b/RNN_python/output_data_test/anom_data8.xlsx
@@ -420,244 +420,244 @@
       <c r="A2" s="1" t="inlineStr"/>
       <c r="B2" s="1" t="inlineStr">
         <is>
-          <t>Tue</t>
+          <t>Wed</t>
         </is>
       </c>
       <c r="C2" s="2" t="n">
-        <v>43081</v>
+        <v>43110</v>
       </c>
       <c r="D2" t="n">
-        <v>-19.57238211690971</v>
+        <v>11.56766084842191</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" s="1" t="n"/>
       <c r="B3" s="1" t="n"/>
       <c r="C3" s="2" t="n">
-        <v>43081.04166666666</v>
+        <v>43110.04166666666</v>
       </c>
       <c r="D3" t="n">
-        <v>12.09871929600828</v>
+        <v>10.63816669359703</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" s="1" t="n"/>
       <c r="B4" s="1" t="n"/>
       <c r="C4" s="2" t="n">
-        <v>43081.08333333334</v>
+        <v>43110.08333333334</v>
       </c>
       <c r="D4" t="n">
-        <v>18.87879005461627</v>
+        <v>13.57919979048663</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" s="1" t="n"/>
       <c r="B5" s="1" t="n"/>
       <c r="C5" s="2" t="n">
-        <v>43081.125</v>
+        <v>43110.125</v>
       </c>
       <c r="D5" t="n">
-        <v>16.12355210616352</v>
+        <v>19.72132605734754</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" s="1" t="n"/>
       <c r="B6" s="1" t="n"/>
       <c r="C6" s="2" t="n">
-        <v>43081.16666666666</v>
+        <v>43110.16666666666</v>
       </c>
       <c r="D6" t="n">
-        <v>25.83825418532436</v>
+        <v>24.65754425966107</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" s="1" t="n"/>
       <c r="B7" s="1" t="n"/>
       <c r="C7" s="2" t="n">
-        <v>43081.20833333334</v>
+        <v>43110.20833333334</v>
       </c>
       <c r="D7" t="n">
-        <v>32.4619231903762</v>
+        <v>31.35639941741566</v>
       </c>
     </row>
     <row r="8">
       <c r="A8" s="1" t="n"/>
       <c r="B8" s="1" t="n"/>
       <c r="C8" s="2" t="n">
-        <v>43081.25</v>
+        <v>43110.25</v>
       </c>
       <c r="D8" t="n">
-        <v>25.35481601793823</v>
+        <v>65.6531204926103</v>
       </c>
     </row>
     <row r="9">
       <c r="A9" s="1" t="n"/>
       <c r="B9" s="1" t="n"/>
       <c r="C9" s="2" t="n">
-        <v>43081.29166666666</v>
+        <v>43110.29166666666</v>
       </c>
       <c r="D9" t="n">
-        <v>113.5907198370556</v>
+        <v>189.7265233069344</v>
       </c>
     </row>
     <row r="10">
       <c r="A10" s="1" t="n"/>
       <c r="B10" s="1" t="n"/>
       <c r="C10" s="2" t="n">
-        <v>43081.33333333334</v>
+        <v>43110.33333333334</v>
       </c>
       <c r="D10" t="n">
-        <v>267.6935785727084</v>
+        <v>383.7820560135259</v>
       </c>
     </row>
     <row r="11">
       <c r="A11" s="1" t="n"/>
       <c r="B11" s="1" t="n"/>
       <c r="C11" s="2" t="n">
-        <v>43081.375</v>
+        <v>43110.375</v>
       </c>
       <c r="D11" t="n">
-        <v>347.2080306953449</v>
+        <v>401.3407615688353</v>
       </c>
     </row>
     <row r="12">
       <c r="A12" s="1" t="n"/>
       <c r="B12" s="1" t="n"/>
       <c r="C12" s="2" t="n">
-        <v>43081.41666666666</v>
+        <v>43110.41666666666</v>
       </c>
       <c r="D12" t="n">
-        <v>326.6286895646302</v>
+        <v>369.3633552342359</v>
       </c>
     </row>
     <row r="13">
       <c r="A13" s="1" t="n"/>
       <c r="B13" s="1" t="n"/>
       <c r="C13" s="2" t="n">
-        <v>43081.45833333334</v>
+        <v>43110.45833333334</v>
       </c>
       <c r="D13" t="n">
-        <v>340.076997285723</v>
+        <v>290.3350409807481</v>
       </c>
     </row>
     <row r="14">
       <c r="A14" s="1" t="n"/>
       <c r="B14" s="1" t="n"/>
       <c r="C14" s="2" t="n">
-        <v>43081.5</v>
+        <v>43110.5</v>
       </c>
       <c r="D14" t="n">
-        <v>323.8560588083436</v>
+        <v>268.9677824004942</v>
       </c>
     </row>
     <row r="15">
       <c r="A15" s="1" t="n"/>
       <c r="B15" s="1" t="n"/>
       <c r="C15" s="2" t="n">
-        <v>43081.54166666666</v>
+        <v>43110.54166666666</v>
       </c>
       <c r="D15" t="n">
-        <v>268.1533931413273</v>
+        <v>223.0618815399127</v>
       </c>
     </row>
     <row r="16">
       <c r="A16" s="1" t="n"/>
       <c r="B16" s="1" t="n"/>
       <c r="C16" s="2" t="n">
-        <v>43081.58333333334</v>
+        <v>43110.58333333334</v>
       </c>
       <c r="D16" t="n">
-        <v>220.4750782811726</v>
+        <v>166.9680131802042</v>
       </c>
     </row>
     <row r="17">
       <c r="A17" s="1" t="n"/>
       <c r="B17" s="1" t="n"/>
       <c r="C17" s="2" t="n">
-        <v>43081.625</v>
+        <v>43110.625</v>
       </c>
       <c r="D17" t="n">
-        <v>176.8590121307276</v>
+        <v>124.7705406832585</v>
       </c>
     </row>
     <row r="18">
       <c r="A18" s="1" t="n"/>
       <c r="B18" s="1" t="n"/>
       <c r="C18" s="2" t="n">
-        <v>43081.66666666666</v>
+        <v>43110.66666666666</v>
       </c>
       <c r="D18" t="n">
-        <v>137.4954084981329</v>
+        <v>92.04364525539108</v>
       </c>
     </row>
     <row r="19">
       <c r="A19" s="1" t="n"/>
       <c r="B19" s="1" t="n"/>
       <c r="C19" s="2" t="n">
-        <v>43081.70833333334</v>
+        <v>43110.70833333334</v>
       </c>
       <c r="D19" t="n">
-        <v>102.9050402275189</v>
+        <v>66.00232175181922</v>
       </c>
     </row>
     <row r="20">
       <c r="A20" s="1" t="n"/>
       <c r="B20" s="1" t="n"/>
       <c r="C20" s="2" t="n">
-        <v>43081.75</v>
+        <v>43110.75</v>
       </c>
       <c r="D20" t="n">
-        <v>73.16176555691135</v>
+        <v>46.20684148402277</v>
       </c>
     </row>
     <row r="21">
       <c r="A21" s="1" t="n"/>
       <c r="B21" s="1" t="n"/>
       <c r="C21" s="2" t="n">
-        <v>43081.79166666666</v>
+        <v>43110.79166666666</v>
       </c>
       <c r="D21" t="n">
-        <v>48.30668211572164</v>
+        <v>31.94772689395253</v>
       </c>
     </row>
     <row r="22">
       <c r="A22" s="1" t="n"/>
       <c r="B22" s="1" t="n"/>
       <c r="C22" s="2" t="n">
-        <v>43081.83333333334</v>
+        <v>43110.83333333334</v>
       </c>
       <c r="D22" t="n">
-        <v>28.56054015086977</v>
+        <v>22.21649564757088</v>
       </c>
     </row>
     <row r="23">
       <c r="A23" s="1" t="n"/>
       <c r="B23" s="1" t="n"/>
       <c r="C23" s="2" t="n">
-        <v>43081.875</v>
+        <v>43110.875</v>
       </c>
       <c r="D23" t="n">
-        <v>14.31019611971051</v>
+        <v>15.91236418648705</v>
       </c>
     </row>
     <row r="24">
       <c r="A24" s="1" t="n"/>
       <c r="B24" s="1" t="n"/>
       <c r="C24" s="2" t="n">
-        <v>43081.91666666666</v>
+        <v>43110.91666666666</v>
       </c>
       <c r="D24" t="n">
-        <v>5.693110171362704</v>
+        <v>12.07066057185197</v>
       </c>
     </row>
     <row r="25">
       <c r="A25" s="1" t="n"/>
       <c r="B25" s="1" t="n"/>
       <c r="C25" s="2" t="n">
-        <v>43081.95833333334</v>
+        <v>43110.95833333334</v>
       </c>
       <c r="D25" t="n">
-        <v>2.448933157242692</v>
+        <v>7.493426119050483</v>
       </c>
     </row>
   </sheetData>
@@ -709,244 +709,244 @@
       <c r="A2" s="1" t="inlineStr"/>
       <c r="B2" s="1" t="inlineStr">
         <is>
-          <t>Tue</t>
+          <t>Wed</t>
         </is>
       </c>
       <c r="C2" s="2" t="n">
-        <v>43081</v>
+        <v>43110</v>
       </c>
       <c r="D2" t="n">
-        <v>13</v>
+        <v>23</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" s="1" t="n"/>
       <c r="B3" s="1" t="n"/>
       <c r="C3" s="2" t="n">
-        <v>43081.04166666666</v>
+        <v>43110.04166666666</v>
       </c>
       <c r="D3" t="n">
-        <v>6</v>
+        <v>10</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" s="1" t="n"/>
       <c r="B4" s="1" t="n"/>
       <c r="C4" s="2" t="n">
-        <v>43081.08333333334</v>
+        <v>43110.08333333334</v>
       </c>
       <c r="D4" t="n">
-        <v>7</v>
+        <v>5</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" s="1" t="n"/>
       <c r="B5" s="1" t="n"/>
       <c r="C5" s="2" t="n">
-        <v>43081.125</v>
+        <v>43110.125</v>
       </c>
       <c r="D5" t="n">
-        <v>25</v>
+        <v>23</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" s="1" t="n"/>
       <c r="B6" s="1" t="n"/>
       <c r="C6" s="2" t="n">
-        <v>43081.16666666666</v>
+        <v>43110.16666666666</v>
       </c>
       <c r="D6" t="n">
-        <v>28</v>
+        <v>24</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" s="1" t="n"/>
       <c r="B7" s="1" t="n"/>
       <c r="C7" s="2" t="n">
-        <v>43081.20833333334</v>
+        <v>43110.20833333334</v>
       </c>
       <c r="D7" t="n">
-        <v>6</v>
+        <v>7</v>
       </c>
     </row>
     <row r="8">
       <c r="A8" s="1" t="n"/>
       <c r="B8" s="1" t="n"/>
       <c r="C8" s="2" t="n">
-        <v>43081.25</v>
+        <v>43110.25</v>
       </c>
       <c r="D8" t="n">
-        <v>13</v>
+        <v>12</v>
       </c>
     </row>
     <row r="9">
       <c r="A9" s="1" t="n"/>
       <c r="B9" s="1" t="n"/>
       <c r="C9" s="2" t="n">
-        <v>43081.29166666666</v>
+        <v>43110.29166666666</v>
       </c>
       <c r="D9" t="n">
-        <v>43</v>
+        <v>39</v>
       </c>
     </row>
     <row r="10">
       <c r="A10" s="1" t="n"/>
       <c r="B10" s="1" t="n"/>
       <c r="C10" s="2" t="n">
-        <v>43081.33333333334</v>
+        <v>43110.33333333334</v>
       </c>
       <c r="D10" t="n">
-        <v>482</v>
+        <v>467</v>
       </c>
     </row>
     <row r="11">
       <c r="A11" s="1" t="n"/>
       <c r="B11" s="1" t="n"/>
       <c r="C11" s="2" t="n">
-        <v>43081.375</v>
+        <v>43110.375</v>
       </c>
       <c r="D11" t="n">
-        <v>391</v>
+        <v>404</v>
       </c>
     </row>
     <row r="12">
       <c r="A12" s="1" t="n"/>
       <c r="B12" s="1" t="n"/>
       <c r="C12" s="2" t="n">
-        <v>43081.41666666666</v>
+        <v>43110.41666666666</v>
       </c>
       <c r="D12" t="n">
-        <v>421</v>
+        <v>597</v>
       </c>
     </row>
     <row r="13">
       <c r="A13" s="1" t="n"/>
       <c r="B13" s="1" t="n"/>
       <c r="C13" s="2" t="n">
-        <v>43081.45833333334</v>
+        <v>43110.45833333334</v>
       </c>
       <c r="D13" t="n">
-        <v>334</v>
+        <v>401</v>
       </c>
     </row>
     <row r="14">
       <c r="A14" s="1" t="n"/>
       <c r="B14" s="1" t="n"/>
       <c r="C14" s="2" t="n">
-        <v>43081.5</v>
+        <v>43110.5</v>
       </c>
       <c r="D14" t="n">
-        <v>342</v>
+        <v>320</v>
       </c>
     </row>
     <row r="15">
       <c r="A15" s="1" t="n"/>
       <c r="B15" s="1" t="n"/>
       <c r="C15" s="2" t="n">
-        <v>43081.54166666666</v>
+        <v>43110.54166666666</v>
       </c>
       <c r="D15" t="n">
-        <v>243</v>
+        <v>253</v>
       </c>
     </row>
     <row r="16">
       <c r="A16" s="1" t="n"/>
       <c r="B16" s="1" t="n"/>
       <c r="C16" s="2" t="n">
-        <v>43081.58333333334</v>
+        <v>43110.58333333334</v>
       </c>
       <c r="D16" t="n">
-        <v>203</v>
+        <v>227</v>
       </c>
     </row>
     <row r="17">
       <c r="A17" s="1" t="n"/>
       <c r="B17" s="1" t="n"/>
       <c r="C17" s="2" t="n">
-        <v>43081.625</v>
+        <v>43110.625</v>
       </c>
       <c r="D17" t="n">
-        <v>193</v>
+        <v>192</v>
       </c>
     </row>
     <row r="18">
       <c r="A18" s="1" t="n"/>
       <c r="B18" s="1" t="n"/>
       <c r="C18" s="2" t="n">
-        <v>43081.66666666666</v>
+        <v>43110.66666666666</v>
       </c>
       <c r="D18" t="n">
-        <v>119</v>
+        <v>140</v>
       </c>
     </row>
     <row r="19">
       <c r="A19" s="1" t="n"/>
       <c r="B19" s="1" t="n"/>
       <c r="C19" s="2" t="n">
-        <v>43081.70833333334</v>
+        <v>43110.70833333334</v>
       </c>
       <c r="D19" t="n">
-        <v>94</v>
+        <v>93</v>
       </c>
     </row>
     <row r="20">
       <c r="A20" s="1" t="n"/>
       <c r="B20" s="1" t="n"/>
       <c r="C20" s="2" t="n">
-        <v>43081.75</v>
+        <v>43110.75</v>
       </c>
       <c r="D20" t="n">
-        <v>64</v>
+        <v>75</v>
       </c>
     </row>
     <row r="21">
       <c r="A21" s="1" t="n"/>
       <c r="B21" s="1" t="n"/>
       <c r="C21" s="2" t="n">
-        <v>43081.79166666666</v>
+        <v>43110.79166666666</v>
       </c>
       <c r="D21" t="n">
-        <v>36</v>
+        <v>46</v>
       </c>
     </row>
     <row r="22">
       <c r="A22" s="1" t="n"/>
       <c r="B22" s="1" t="n"/>
       <c r="C22" s="2" t="n">
-        <v>43081.83333333334</v>
+        <v>43110.83333333334</v>
       </c>
       <c r="D22" t="n">
-        <v>32</v>
+        <v>37</v>
       </c>
     </row>
     <row r="23">
       <c r="A23" s="1" t="n"/>
       <c r="B23" s="1" t="n"/>
       <c r="C23" s="2" t="n">
-        <v>43081.875</v>
+        <v>43110.875</v>
       </c>
       <c r="D23" t="n">
-        <v>18</v>
+        <v>20</v>
       </c>
     </row>
     <row r="24">
       <c r="A24" s="1" t="n"/>
       <c r="B24" s="1" t="n"/>
       <c r="C24" s="2" t="n">
-        <v>43081.91666666666</v>
+        <v>43110.91666666666</v>
       </c>
       <c r="D24" t="n">
-        <v>9</v>
+        <v>15</v>
       </c>
     </row>
     <row r="25">
       <c r="A25" s="1" t="n"/>
       <c r="B25" s="1" t="n"/>
       <c r="C25" s="2" t="n">
-        <v>43081.95833333334</v>
+        <v>43110.95833333334</v>
       </c>
       <c r="D25" t="n">
-        <v>15</v>
+        <v>7</v>
       </c>
     </row>
   </sheetData>
